--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>form num</t>
   </si>
@@ -42,16 +42,264 @@
   </si>
   <si>
     <t>oracle</t>
+  </si>
+  <si>
+    <t>Company Address</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Head Quarter</t>
+  </si>
+  <si>
+    <t>Number of Employees</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Brand Ambassador</t>
+  </si>
+  <si>
+    <t>Media Partner</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Franchise Partner</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Advertising Media</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Sub Classification</t>
+  </si>
+  <si>
+    <t>Registration date</t>
+  </si>
+  <si>
+    <t>Yearly Revenue</t>
+  </si>
+  <si>
+    <t>Land Mark</t>
+  </si>
+  <si>
+    <t>Account Audit</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Yearly Expense</t>
+  </si>
+  <si>
+    <t>lea market</t>
+  </si>
+  <si>
+    <t>kharadar</t>
+  </si>
+  <si>
+    <t>jubilee</t>
+  </si>
+  <si>
+    <t>www.bing.com</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>www.linkedin.com</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>bcd@gmail.com</t>
+  </si>
+  <si>
+    <t>cde@gmail.com</t>
+  </si>
+  <si>
+    <t>sindh</t>
+  </si>
+  <si>
+    <t>stockholm</t>
+  </si>
+  <si>
+    <t>london</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>georgia</t>
+  </si>
+  <si>
+    <t>aberdeen</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tecn</t>
+  </si>
+  <si>
+    <t>Daniyal</t>
+  </si>
+  <si>
+    <t>Arshad</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Dalta</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>ipnordic</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>arshad</t>
+  </si>
+  <si>
+    <t>danyal</t>
+  </si>
+  <si>
+    <t>arhsad</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>graphics</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python </t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>faisal</t>
+  </si>
+  <si>
+    <t>fahim</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Firm</t>
+  </si>
+  <si>
+    <t>someone</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>euro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +322,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,9 +623,27 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,8 +653,89 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -393,8 +745,89 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>75500</v>
+      </c>
+      <c r="F2">
+        <v>90078601</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>131351141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>44083</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -404,8 +837,89 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>23001</v>
+      </c>
+      <c r="F3">
+        <v>90003413</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>123124194</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3">
+        <v>400</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>43832</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -415,8 +929,98 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>43100</v>
+      </c>
+      <c r="F4">
+        <v>91340131</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>131413413</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>900</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>